--- a/Hardware/simulations/cuircuit components measurments/Måledata konverteringsmappe/LTC krets/LTC_simulerings_data.xlsx
+++ b/Hardware/simulations/cuircuit components measurments/Måledata konverteringsmappe/LTC krets/LTC_simulerings_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Desktop\TEST\Måledata konverteringsmappe\LTC krets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documents\GitHub\Bachelor-Nordic_Semi\Hardware\simulations\cuircuit components measurments\Måledata konverteringsmappe\LTC krets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC4339-4799-4208-A897-FD811037DB52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1613,7 +1613,7 @@
   <dimension ref="B3:AP93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+      <selection activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
